--- a/TestCases_Template.xlsx
+++ b/TestCases_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schindhana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6595693C-08B6-4985-AF48-4C5BA120AE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF19EA45-7E28-45B7-B8DC-AAF377BCDEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="884" firstSheet="1" activeTab="1" xr2:uid="{A3941849-4758-4F69-9036-1EB9F8ABCD4F}"/>
   </bookViews>
@@ -231,8 +231,8 @@
     <t>Not Executed</t>
   </si>
   <si>
-    <t xml:space="preserve">Component: MultiFunctionalTool
-MFP: Any
+    <t xml:space="preserve">Component: 
+MFP: 
 Build: 
 Date: 
 Target: </t>
@@ -806,6 +806,81 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -830,57 +905,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -888,32 +914,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1004,11 +1004,11 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{8BD21D30-EC42-11CE-9E0D-00AA006002F3}" ax:persistence="persistStreamInit" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1453,13 +1453,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="17.5">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1477,14 +1477,14 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="17.5">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
@@ -1499,15 +1499,15 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:21" s="1" customFormat="1" ht="15.5">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="80" t="s">
+      <c r="B3" s="101"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1524,13 +1524,13 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1" ht="15.5">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1548,13 +1548,13 @@
       <c r="T4" s="2"/>
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1572,13 +1572,13 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1" ht="15.5">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1596,13 +1596,13 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1620,13 +1620,13 @@
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1" ht="15.5">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1644,13 +1644,13 @@
       <c r="T8" s="2"/>
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1668,14 +1668,14 @@
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="3"/>
@@ -1715,16 +1715,16 @@
       <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1" ht="17.5">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="3"/>
@@ -1739,18 +1739,18 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:21" ht="19.5" customHeight="1">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="9"/>
@@ -1766,45 +1766,45 @@
       <c r="U13" s="40"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A14" s="102"/>
-      <c r="B14" s="97" t="s">
+      <c r="A14" s="85"/>
+      <c r="B14" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="83" t="s">
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="83" t="s">
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="86"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="83" t="s">
+      <c r="J14" s="80"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="84"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="83" t="s">
+      <c r="M14" s="79"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="83" t="s">
+      <c r="P14" s="79"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="84"/>
-      <c r="T14" s="85"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="87"/>
       <c r="U14" s="40"/>
     </row>
     <row r="15" spans="1:21" ht="69.5">
-      <c r="A15" s="103"/>
-      <c r="B15" s="98"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="11" t="s">
         <v>6</v>
       </c>
@@ -9506,16 +9506,16 @@
       <c r="T217" s="2"/>
     </row>
     <row r="218" spans="1:21" s="1" customFormat="1" ht="17.5">
-      <c r="A218" s="90" t="s">
+      <c r="A218" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B218" s="91"/>
-      <c r="C218" s="91"/>
-      <c r="D218" s="91"/>
-      <c r="E218" s="91"/>
-      <c r="F218" s="91"/>
-      <c r="G218" s="91"/>
-      <c r="H218" s="91"/>
+      <c r="B218" s="77"/>
+      <c r="C218" s="77"/>
+      <c r="D218" s="77"/>
+      <c r="E218" s="77"/>
+      <c r="F218" s="77"/>
+      <c r="G218" s="77"/>
+      <c r="H218" s="77"/>
       <c r="I218" s="35"/>
       <c r="J218" s="35"/>
       <c r="K218" s="3"/>
@@ -9849,10 +9849,10 @@
       <c r="A231" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B231" s="89"/>
-      <c r="C231" s="89"/>
-      <c r="D231" s="89"/>
-      <c r="E231" s="89"/>
+      <c r="B231" s="75"/>
+      <c r="C231" s="75"/>
+      <c r="D231" s="75"/>
+      <c r="E231" s="75"/>
       <c r="F231" s="31"/>
       <c r="G231" s="31"/>
       <c r="H231" s="31"/>
@@ -9873,10 +9873,10 @@
       <c r="A232" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B232" s="88"/>
-      <c r="C232" s="88"/>
-      <c r="D232" s="88"/>
-      <c r="E232" s="88"/>
+      <c r="B232" s="74"/>
+      <c r="C232" s="74"/>
+      <c r="D232" s="74"/>
+      <c r="E232" s="74"/>
       <c r="F232" s="31"/>
       <c r="G232" s="31"/>
       <c r="H232" s="31"/>
@@ -10158,22 +10158,6 @@
   </sheetData>
   <sheetProtection password="9B81" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="31">
-    <mergeCell ref="B232:E232"/>
-    <mergeCell ref="B231:E231"/>
-    <mergeCell ref="A218:H218"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A12:H12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="D9:E9"/>
@@ -10189,6 +10173,22 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="B232:E232"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="A218:H218"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations xWindow="466" yWindow="396" count="5">
@@ -10213,8 +10213,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId4" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="2060" r:id="rId4" name="iteration_combo">
+          <controlPr locked="0" defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>203200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId4" name="iteration_combo"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId6" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -10233,32 +10258,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId4" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId6" name="iteration_combo">
-          <controlPr locked="0" defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>203200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId6" name="iteration_combo"/>
+        <control shapeId="2049" r:id="rId6" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10269,8 +10269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A0A0053-7298-4401-9167-B0F022FE75EC}">
   <dimension ref="A1:I697"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13" zeroHeight="1"/>
